--- a/diaries/diary-wenchia_yang.xlsx
+++ b/diaries/diary-wenchia_yang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffbala/Desktop/Course/MSWE/2020 Winter/SWE 265P/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6627F438-2E6A-6E43-A859-114F2FB683D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F242D0-11E1-E143-9CF0-66FE255CEF83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-14160" windowWidth="38400" windowHeight="21600" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="-38400" yWindow="-13700" windowWidth="38400" windowHeight="21140" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>17:00 - 19:50</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>1. Understood the course
@@ -88,6 +85,46 @@
   </si>
   <si>
     <t>I was shocked while building Jedit project because I haven't use ant to build my project before. After I bulit it, I got  tons of errors, and I have no idea where to begin fix them.</t>
+  </si>
+  <si>
+    <t>16:00 - 17:00</t>
+  </si>
+  <si>
+    <t>Me</t>
+  </si>
+  <si>
+    <t>Successfully build and run 3 open source projects</t>
+  </si>
+  <si>
+    <t>1. Successfully built and ran jedit
+2. Successfully built and ran google guava</t>
+  </si>
+  <si>
+    <t>1. Learned how to use ant build
+2. Learned how to use marven build
+3. Learned how to understand error message after built the project and tried to google it with more precise keywords</t>
+  </si>
+  <si>
+    <t>I tried multiple times to build jedit. Even though I think this project is a little bit outdated, I still enjoy the joy after successfully running it.</t>
+  </si>
+  <si>
+    <t>17:00 - 20:00</t>
+  </si>
+  <si>
+    <t>Solved bugs appeared in jpacman1 and jpacman2</t>
+  </si>
+  <si>
+    <t>1. Learned how to use different strategies to read code
+2. Tried to practice these strategies on the read-world projects
+3. Solved bugs before the professor showed the answer
+4. Learned industrial experience from googler(Ping Chen)</t>
+  </si>
+  <si>
+    <t>1. Understand different strategies to read code and practice them
+2. Industrial sharings from googler</t>
+  </si>
+  <si>
+    <t>The practice of solved buds is just like a competition. Though it might be a little bit stressed out, I still enjoy the moment that I found bugs.</t>
   </si>
 </sst>
 </file>
@@ -210,12 +247,23 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -226,7 +274,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -255,23 +303,29 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -594,7 +648,7 @@
   <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -603,24 +657,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -689,25 +743,25 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -719,38 +773,66 @@
         <v>14</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="15" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>43846</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
+      <c r="C11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>43846</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>

--- a/diaries/diary-wenchia_yang.xlsx
+++ b/diaries/diary-wenchia_yang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffbala/Desktop/Course/MSWE/2020 Winter/SWE 265P/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F242D0-11E1-E143-9CF0-66FE255CEF83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C0FEB2-1D60-404D-B1D4-105ED562C810}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-13700" windowWidth="38400" windowHeight="21140" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="-38400" yWindow="-14160" windowWidth="38400" windowHeight="21600" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -125,6 +125,70 @@
   </si>
   <si>
     <t>The practice of solved buds is just like a competition. Though it might be a little bit stressed out, I still enjoy the moment that I found bugs.</t>
+  </si>
+  <si>
+    <t>15:00 - 16:00</t>
+  </si>
+  <si>
+    <t>Me, Junxian, Zihua</t>
+  </si>
+  <si>
+    <t>To decide the repository of the group project</t>
+  </si>
+  <si>
+    <t>We decided to use FastJson as our group project.</t>
+  </si>
+  <si>
+    <t>Feel good because we discussed efficiently and had a conclusion quickly.</t>
+  </si>
+  <si>
+    <t>Learned calculate total lines of source code within a project</t>
+  </si>
+  <si>
+    <t>20:30 - 21:30</t>
+  </si>
+  <si>
+    <t>To read and understand 3 online articles(homework)</t>
+  </si>
+  <si>
+    <t>Understood more methods of how to read code</t>
+  </si>
+  <si>
+    <t>Learned how to read code efficiently via real cases.</t>
+  </si>
+  <si>
+    <t>Uncertaint! I think even though we have some rules to follow while reading codes, doing this alone sometimes may not understand the code accurately. Therefore, I think the better way to read code is to group some people who want to understand the project together.</t>
+  </si>
+  <si>
+    <t>22:00 - 23:30</t>
+  </si>
+  <si>
+    <t>To change the repository of the group project</t>
+  </si>
+  <si>
+    <t>We ultimately decided to use realm-java as our group project.</t>
+  </si>
+  <si>
+    <t>Learned how to find a project that is interested enough for the entire group members.</t>
+  </si>
+  <si>
+    <t>A littile bit streesed. We spent a lot of time filter open source projects in the beginning. Some projects are famous but total line of code can't fit the requirement. While others might be too complicated for us. Therefore, we spent a lot of time to do research.</t>
+  </si>
+  <si>
+    <t>00:00 - 03:00</t>
+  </si>
+  <si>
+    <t>To finish pacman3 homework</t>
+  </si>
+  <si>
+    <t>Succesully finished all three questions, compiled it and ran the program.</t>
+  </si>
+  <si>
+    <t>1. Learned how to trace code layer by layer
+2. Learned how to explain the code</t>
+  </si>
+  <si>
+    <t>Exhausted! Writing answers is just like documenting the code, and I took a lot of time screenshot the code and put them together into my homework.</t>
   </si>
 </sst>
 </file>
@@ -247,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -266,6 +330,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -274,7 +347,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -291,12 +364,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -305,9 +372,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -326,6 +390,18 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -648,7 +724,7 @@
   <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -657,24 +733,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -702,7 +778,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1"/>
@@ -715,7 +791,7 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1"/>
@@ -743,1086 +819,1142 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="80" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="A10" s="9">
         <v>43839</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="A11" s="9">
         <v>43846</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="A12" s="9">
         <v>43846</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
+    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>43847</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>43849</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>43849</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>43850</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
     </row>
     <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
     </row>
     <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="8"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="8"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="8"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="8"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="8"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="8"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="18"/>
     </row>
     <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="8"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="8"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="8"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="8"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="18"/>
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="8"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="8"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="18"/>
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="8"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="18"/>
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="8"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="18"/>
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="8"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="18"/>
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="8"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="18"/>
     </row>
     <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="8"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="18"/>
     </row>
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="8"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="18"/>
     </row>
     <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="8"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="18"/>
     </row>
     <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="8"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="18"/>
     </row>
     <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="8"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="18"/>
     </row>
     <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="8"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="18"/>
     </row>
     <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="8"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="18"/>
     </row>
     <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="8"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="18"/>
     </row>
     <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="8"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="18"/>
     </row>
     <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="8"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="18"/>
     </row>
     <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="8"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="18"/>
     </row>
     <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="8"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="18"/>
     </row>
     <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="8"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="18"/>
     </row>
     <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="8"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="18"/>
     </row>
     <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="8"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="18"/>
     </row>
     <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="8"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="18"/>
     </row>
     <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="8"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="18"/>
     </row>
     <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="8"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="18"/>
     </row>
     <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="8"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="18"/>
     </row>
     <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="8"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="18"/>
     </row>
     <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="8"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="18"/>
     </row>
     <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="8"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="18"/>
     </row>
     <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="8"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="18"/>
     </row>
     <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="8"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="18"/>
     </row>
     <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="8"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="18"/>
     </row>
     <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="8"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="18"/>
     </row>
     <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="8"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="18"/>
     </row>
     <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="8"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="18"/>
     </row>
     <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="8"/>
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="18"/>
     </row>
     <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="8"/>
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="18"/>
     </row>
     <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="8"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="18"/>
     </row>
     <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="8"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="18"/>
     </row>
     <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="8"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="18"/>
     </row>
     <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="8"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="18"/>
     </row>
     <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="8"/>
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="18"/>
     </row>
     <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="8"/>
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="18"/>
     </row>
     <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="8"/>
+      <c r="A93" s="17"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="18"/>
     </row>
     <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="8"/>
+      <c r="A94" s="17"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="18"/>
     </row>
     <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="8"/>
+      <c r="A95" s="17"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="18"/>
     </row>
     <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="8"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="18"/>
     </row>
     <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="8"/>
+      <c r="A97" s="17"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="18"/>
     </row>
     <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="8"/>
+      <c r="A98" s="17"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="18"/>
     </row>
     <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="8"/>
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="18"/>
     </row>
     <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="8"/>
+      <c r="A100" s="17"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="18"/>
     </row>
     <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="8"/>
+      <c r="A101" s="17"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="18"/>
     </row>
     <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="8"/>
+      <c r="A102" s="17"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="18"/>
     </row>
     <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="8"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="18"/>
     </row>
     <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="8"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="18"/>
     </row>
     <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="8"/>
+      <c r="A105" s="17"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="18"/>
     </row>
     <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="8"/>
+      <c r="A106" s="17"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="18"/>
     </row>
     <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="8"/>
+      <c r="A107" s="17"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="18"/>
     </row>
     <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="8"/>
+      <c r="A108" s="17"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="18"/>
     </row>
     <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="8"/>
+      <c r="A109" s="17"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="18"/>
     </row>
     <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="8"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="18"/>
     </row>
     <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="8"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="18"/>
     </row>
     <row r="112" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="8"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="18"/>
     </row>
     <row r="113" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="8"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="18"/>
     </row>
     <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="8"/>
+      <c r="A114" s="17"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="18"/>
     </row>
     <row r="115" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="8"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="18"/>
     </row>
     <row r="116" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="8"/>
+      <c r="A116" s="17"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="18"/>
     </row>
     <row r="117" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="8"/>
+      <c r="A117" s="17"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="18"/>
     </row>
     <row r="118" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="8"/>
+      <c r="A118" s="17"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="18"/>
     </row>
     <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="8"/>
+      <c r="A119" s="17"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="18"/>
     </row>
     <row r="120" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="8"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="18"/>
     </row>
     <row r="121" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="8"/>
+      <c r="A121" s="17"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="18"/>
     </row>
     <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="8"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/diaries/diary-wenchia_yang.xlsx
+++ b/diaries/diary-wenchia_yang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffbala/Desktop/Course/MSWE/2020 Winter/SWE 265P/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C0FEB2-1D60-404D-B1D4-105ED562C810}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7F7F2D-83B5-694F-B62C-579E54368C7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-14160" windowWidth="38400" windowHeight="21600" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="-38400" yWindow="-13700" windowWidth="38400" windowHeight="21140" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -189,6 +189,23 @@
   </si>
   <si>
     <t>Exhausted! Writing answers is just like documenting the code, and I took a lot of time screenshot the code and put them together into my homework.</t>
+  </si>
+  <si>
+    <t>1. Review jpacman homework
+2. Understan the concept of mental model
+3. Industrial sharing from ZocDoc employee</t>
+  </si>
+  <si>
+    <t>1. Finished the practice of reading code for a certain feature with group members by using standard sheet to trace the process.
+2. Installed simpledYMLCE on Intellij and ran it to build a graph of all UML diagrams of jpacman to see dependencies between all class.
+3. Learned how to read code and understood the process of read code from an alumni. Because Alegria is a backend developer, she usually starts to read code from controllers, and she looks code from top(general) level. She also mentioned that we can use Github or OmniGraffle to facilitate us.</t>
+  </si>
+  <si>
+    <t>1. Learned how to integrate tools and mental models while reading code.
+2. Sometimes other people might have better thought or instinction thane me while tracing code. So, I think the most efficient way to understand code is to integrate opinions from different people.</t>
+  </si>
+  <si>
+    <t>Feel satisfied. I'm excited to understand using tools for code analyzing. Hope I can use this tool to analze our project this quarter.</t>
   </si>
 </sst>
 </file>
@@ -391,9 +408,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -402,6 +416,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -723,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -733,24 +750,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -946,10 +963,10 @@
       <c r="D14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -998,963 +1015,977 @@
       <c r="F16" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
+    <row r="17" spans="1:7" ht="272" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>43854</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="18"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="18"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="18"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="18"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="18"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="17"/>
     </row>
     <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="18"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="18"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
     </row>
     <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="18"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="18"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="17"/>
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="18"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="17"/>
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="18"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="18"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="18"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="17"/>
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="18"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="17"/>
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="18"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="17"/>
     </row>
     <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="18"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="18"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="18"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="17"/>
     </row>
     <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="18"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="18"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="17"/>
     </row>
     <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="18"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="17"/>
     </row>
     <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="18"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17"/>
     </row>
     <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="18"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="17"/>
     </row>
     <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="18"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="17"/>
     </row>
     <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="18"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="18"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="17"/>
     </row>
     <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="18"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="17"/>
     </row>
     <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="18"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="17"/>
     </row>
     <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="18"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="17"/>
     </row>
     <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="18"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="17"/>
     </row>
     <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="18"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="17"/>
     </row>
     <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="18"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="17"/>
     </row>
     <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="18"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="17"/>
     </row>
     <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="18"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="17"/>
     </row>
     <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="18"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="17"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="18"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="17"/>
     </row>
     <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="18"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="17"/>
     </row>
     <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="18"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="17"/>
     </row>
     <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="18"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="17"/>
     </row>
     <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="18"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="17"/>
     </row>
     <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="18"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="17"/>
     </row>
     <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="18"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="17"/>
     </row>
     <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="18"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="17"/>
     </row>
     <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="18"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="17"/>
     </row>
     <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="18"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="17"/>
     </row>
     <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="17"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="18"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="17"/>
     </row>
     <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="17"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="18"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="17"/>
     </row>
     <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="18"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="17"/>
     </row>
     <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="18"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="17"/>
     </row>
     <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="18"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="17"/>
     </row>
     <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="18"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="17"/>
     </row>
     <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="17"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="18"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="17"/>
     </row>
     <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="17"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="18"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="17"/>
     </row>
     <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="18"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="17"/>
     </row>
     <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="18"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="17"/>
     </row>
     <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="17"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="18"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="17"/>
     </row>
     <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="18"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="17"/>
     </row>
     <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="17"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="18"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="17"/>
     </row>
     <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="17"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="18"/>
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="17"/>
     </row>
     <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="17"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="18"/>
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="17"/>
     </row>
     <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="17"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="18"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="17"/>
     </row>
     <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="17"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="18"/>
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="17"/>
     </row>
     <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="17"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="18"/>
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="17"/>
     </row>
     <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="17"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="18"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="17"/>
     </row>
     <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="17"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="18"/>
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="17"/>
     </row>
     <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="17"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="18"/>
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="17"/>
     </row>
     <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="17"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="18"/>
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="17"/>
     </row>
     <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="17"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="18"/>
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="17"/>
     </row>
     <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="18"/>
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="17"/>
     </row>
     <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="18"/>
+      <c r="A111" s="16"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="17"/>
     </row>
     <row r="112" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="17"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="18"/>
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="17"/>
     </row>
     <row r="113" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="17"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="18"/>
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="17"/>
     </row>
     <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="17"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="18"/>
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="17"/>
     </row>
     <row r="115" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="17"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="18"/>
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="17"/>
     </row>
     <row r="116" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="17"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="17"/>
-      <c r="F116" s="17"/>
-      <c r="G116" s="18"/>
+      <c r="A116" s="16"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="17"/>
     </row>
     <row r="117" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="17"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="17"/>
-      <c r="G117" s="18"/>
+      <c r="A117" s="16"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="17"/>
     </row>
     <row r="118" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="17"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="18"/>
+      <c r="A118" s="16"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="17"/>
     </row>
     <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="17"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="17"/>
-      <c r="G119" s="18"/>
+      <c r="A119" s="16"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="17"/>
     </row>
     <row r="120" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="17"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="17"/>
-      <c r="G120" s="18"/>
+      <c r="A120" s="16"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="17"/>
     </row>
     <row r="121" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="17"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="17"/>
-      <c r="G121" s="18"/>
+      <c r="A121" s="16"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="17"/>
     </row>
     <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="17"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="17"/>
-      <c r="G122" s="18"/>
+      <c r="A122" s="16"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/diaries/diary-wenchia_yang.xlsx
+++ b/diaries/diary-wenchia_yang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffbala/Desktop/Course/MSWE/2020 Winter/SWE 265P/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7F7F2D-83B5-694F-B62C-579E54368C7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AD2656-BF14-0B4D-B2AC-9C72FE6BA886}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-13700" windowWidth="38400" windowHeight="21140" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -206,6 +206,134 @@
   </si>
   <si>
     <t>Feel satisfied. I'm excited to understand using tools for code analyzing. Hope I can use this tool to analze our project this quarter.</t>
+  </si>
+  <si>
+    <t>15:30 - 16:20</t>
+  </si>
+  <si>
+    <t>Me, Zihua</t>
+  </si>
+  <si>
+    <t>To find 2 features in Realm-Java of group homework</t>
+  </si>
+  <si>
+    <t>Succesfully found 2 feasible features to trace</t>
+  </si>
+  <si>
+    <t>1. Understood how to look a massive project in a higer way
+2. Learned how to set some boundries while deciding a feature</t>
+  </si>
+  <si>
+    <t>Tired! It's really hard to understand an open-source project in a short amount of time. We have to search via Internet for additional documents to help us.</t>
+  </si>
+  <si>
+    <t>16:30 - 17:00</t>
+  </si>
+  <si>
+    <t>Not really finished it, just had some thoughts about the homework</t>
+  </si>
+  <si>
+    <t>Understood code relationships of feature 1</t>
+  </si>
+  <si>
+    <t>Feel energertic, because I started understanding code relationships</t>
+  </si>
+  <si>
+    <t>20:00 - 21:30</t>
+  </si>
+  <si>
+    <t>Succesfully finished research, UML diagram and mental concept of feature 1</t>
+  </si>
+  <si>
+    <t>Happy but tired!</t>
+  </si>
+  <si>
+    <t>0:30 - 3:00</t>
+  </si>
+  <si>
+    <t>Me, Junxian</t>
+  </si>
+  <si>
+    <t>To finish feature 2 of group project</t>
+  </si>
+  <si>
+    <t>To finish feature 1 of group project</t>
+  </si>
+  <si>
+    <t>Almost finished it. For my part, I finished tracing the code of feature 2 and finished mental concept tables.</t>
+  </si>
+  <si>
+    <t>1. Learned how to dispatch different task to different members in the team and then integrate everyone's result.
+2. Learned how to initialize realm and cofigure it customedly.</t>
+  </si>
+  <si>
+    <t>1. Learned how to dispatch different task to different members in the team and then integrate everyone's result.
+2. Learned how to dynamically create tables in realm via customed RealmObject.</t>
+  </si>
+  <si>
+    <t>Exausted!!!</t>
+  </si>
+  <si>
+    <t>10:00 - 12:00</t>
+  </si>
+  <si>
+    <t>To watch and understand 3 videos on Youtube</t>
+  </si>
+  <si>
+    <t>Awesome!</t>
+  </si>
+  <si>
+    <t>1. In Tutorial: Read Code, I undestood the concept of reading source code by using todo-note method and actually praciced this method with the video step by step.
+2. In how to Read Source Code, I learned how to use multiple ways to read code, such as glue, interface-detecting, implementation, configuration and read messy code.
+3. In Strategies for working with legacy code, I realized I can use several strategies to deal with legacy code, such as white board, data model, fix bugs, tree surgery, keep a log or sunk cost fallacy.</t>
+  </si>
+  <si>
+    <t>To generate URL diagrams</t>
+  </si>
+  <si>
+    <t>Downloaded tools for generating UML diagrans, and tried to ran it.</t>
+  </si>
+  <si>
+    <t>1. Learned how to generate UML diagram from a massive projects, but the result diagram was so complicated and made the diagram be unable to read.
+2. Learned how to generate proper UML diagram by picking only some related files.</t>
+  </si>
+  <si>
+    <t>Exploring, and feel interesting.</t>
+  </si>
+  <si>
+    <t>20:00 - 22:00</t>
+  </si>
+  <si>
+    <t>13:00 - 14:00</t>
+  </si>
+  <si>
+    <t>Understood how to use tools to generate UML diagrams</t>
+  </si>
+  <si>
+    <t>Learned how to use tools to generate UML diagrams</t>
+  </si>
+  <si>
+    <t>Feel happy!</t>
+  </si>
+  <si>
+    <t>1. Review homework 1 of group project
+2. Understand the concept of KEP, structural &amp; behavioral models and tools to read code.
+3. Industrial sharing</t>
+  </si>
+  <si>
+    <t>Understood how to read code, practice the concept of reading code with actual examples and how to work with legacy code</t>
+  </si>
+  <si>
+    <t>1. Underatood other groups' situation of homework 1
+2. Learned concept of KEP, models and tools, and realized the real world example of code refactoring.
+3. Tried plugins of Call Graph and Swquence Diagram</t>
+  </si>
+  <si>
+    <t>1. Learned a lesson from the example of one company that put extra efforts on refactoring code if they don't really inderstand the entire code base.
+2. Learned how to use IDE to generate diagrams and graphs to help developers understand code base.</t>
+  </si>
+  <si>
+    <t>Feel Great!</t>
   </si>
 </sst>
 </file>
@@ -364,7 +492,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -411,11 +539,23 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -738,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -750,24 +890,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1015,7 +1155,7 @@
       <c r="F16" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1042,950 +1182,1071 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
+    <row r="18" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>43858</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>43859</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>43859</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>43859</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>43860</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="272" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>43860</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>43860</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>43860</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="17"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="17"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="17"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="17"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="17"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="17"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="21"/>
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="17"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="21"/>
     </row>
     <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="17"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="21"/>
     </row>
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="17"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="21"/>
     </row>
     <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="17"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="21"/>
     </row>
     <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="17"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
     </row>
     <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="17"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="21"/>
     </row>
     <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="17"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="21"/>
     </row>
     <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="17"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="21"/>
     </row>
     <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="17"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="21"/>
     </row>
     <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="17"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="21"/>
     </row>
     <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="17"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="21"/>
     </row>
     <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="17"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="21"/>
     </row>
     <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="17"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="21"/>
     </row>
     <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="17"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="21"/>
     </row>
     <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="17"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="21"/>
     </row>
     <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="17"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="21"/>
     </row>
     <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="17"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="21"/>
     </row>
     <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="17"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="21"/>
     </row>
     <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="17"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="21"/>
     </row>
     <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="17"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="21"/>
     </row>
     <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="17"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="21"/>
     </row>
     <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="17"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="21"/>
     </row>
     <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="17"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="21"/>
     </row>
     <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="17"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="21"/>
     </row>
     <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="17"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="21"/>
     </row>
     <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="17"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="21"/>
     </row>
     <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="17"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="21"/>
     </row>
     <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="17"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="21"/>
     </row>
     <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="17"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="21"/>
     </row>
     <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="16"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="17"/>
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="21"/>
     </row>
     <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="17"/>
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="21"/>
     </row>
     <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="16"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="17"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="21"/>
     </row>
     <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="16"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="17"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="21"/>
     </row>
     <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="17"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="21"/>
     </row>
     <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="16"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="17"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="21"/>
     </row>
     <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="16"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="17"/>
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="21"/>
     </row>
     <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="17"/>
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="21"/>
     </row>
     <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="16"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="17"/>
+      <c r="A93" s="17"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="21"/>
     </row>
     <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="17"/>
+      <c r="A94" s="17"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="21"/>
     </row>
     <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="17"/>
+      <c r="A95" s="17"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="21"/>
     </row>
     <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="17"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="21"/>
     </row>
     <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="16"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="17"/>
+      <c r="A97" s="17"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="21"/>
     </row>
     <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="17"/>
+      <c r="A98" s="17"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="21"/>
     </row>
     <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="17"/>
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="21"/>
     </row>
     <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="16"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="17"/>
+      <c r="A100" s="17"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="21"/>
     </row>
     <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="16"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="17"/>
+      <c r="A101" s="17"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="21"/>
     </row>
     <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="16"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="17"/>
+      <c r="A102" s="17"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="21"/>
     </row>
     <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="16"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="17"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="21"/>
     </row>
     <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="16"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="17"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="21"/>
     </row>
     <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="16"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="17"/>
+      <c r="A105" s="17"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="21"/>
     </row>
     <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="16"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="17"/>
+      <c r="A106" s="17"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="21"/>
     </row>
     <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="16"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="17"/>
+      <c r="A107" s="17"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="21"/>
     </row>
     <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="16"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="17"/>
+      <c r="A108" s="17"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="21"/>
     </row>
     <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="16"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="17"/>
+      <c r="A109" s="17"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="21"/>
     </row>
     <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="16"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="17"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="21"/>
     </row>
     <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="16"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="17"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="21"/>
     </row>
     <row r="112" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="16"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="17"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="21"/>
     </row>
     <row r="113" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="16"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="17"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="21"/>
     </row>
     <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="16"/>
-      <c r="B114" s="16"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="17"/>
+      <c r="A114" s="17"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="21"/>
     </row>
     <row r="115" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="16"/>
-      <c r="B115" s="16"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="17"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="21"/>
     </row>
     <row r="116" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="16"/>
-      <c r="B116" s="16"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="17"/>
+      <c r="A116" s="17"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="21"/>
     </row>
     <row r="117" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="16"/>
-      <c r="B117" s="16"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="17"/>
+      <c r="A117" s="17"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="21"/>
     </row>
     <row r="118" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="16"/>
-      <c r="B118" s="16"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="17"/>
+      <c r="A118" s="17"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="21"/>
     </row>
     <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="16"/>
-      <c r="B119" s="16"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="17"/>
+      <c r="A119" s="17"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="21"/>
     </row>
     <row r="120" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="16"/>
-      <c r="B120" s="16"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="17"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="21"/>
     </row>
     <row r="121" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="16"/>
-      <c r="B121" s="16"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="17"/>
+      <c r="A121" s="17"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="21"/>
     </row>
     <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="16"/>
-      <c r="B122" s="16"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="17"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="21"/>
+    </row>
+    <row r="123" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="17"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/diaries/diary-wenchia_yang.xlsx
+++ b/diaries/diary-wenchia_yang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffbala/Desktop/Course/MSWE/2020 Winter/SWE 265P/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDD82C6-7635-9340-B102-895C13EA03AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752BF801-AD53-2742-A401-8408C56FF109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-13700" windowWidth="38400" windowHeight="21140" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="-38400" yWindow="-13700" windowWidth="38400" windowHeight="19760" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="167">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -398,6 +398,178 @@
   </si>
   <si>
     <t>Feel nervous because of the midterm! Feel not well-prepared for understanding every concept of previous lectures.</t>
+  </si>
+  <si>
+    <t>1. Understood who are stakeholders.
+2. Know the knowledge of seeing code with higher level.
+3. Realized the way to do when stucking.
+4. Leaned some examples to see the big picture.</t>
+  </si>
+  <si>
+    <t>1. Understand the concept of KEP(stakeholders, abstraction and do something when facing diffuculties).
+2. understood how to see the big picture of a project</t>
+  </si>
+  <si>
+    <t>1. Midterm
+2. More concepts of KEP.
+3. Concept of the big picture.</t>
+  </si>
+  <si>
+    <t>Feel so tired because of the midterm, and I think I lose some attention toward some lecture material.</t>
+  </si>
+  <si>
+    <t>15:00 - 15:20</t>
+  </si>
+  <si>
+    <t>Me, Junxian, Kaj</t>
+  </si>
+  <si>
+    <t>To get some feedback of assignment 2</t>
+  </si>
+  <si>
+    <t>We are struggling whether we should dive deep into another project.</t>
+  </si>
+  <si>
+    <t>Kaj told us to confirm whether our project is just a wapper or not. Learned some thought from Kaj because he told us that why a wrapper project owns over 10k lines of code. We then tried to dig deeper to the code to figure it out.</t>
+  </si>
+  <si>
+    <t>Feel bad because we didn't fully understand the entire project. And we need to find some proof to report Kaj whether our project is a wapper or not.</t>
+  </si>
+  <si>
+    <t>22:00 - 23:00</t>
+  </si>
+  <si>
+    <t>To find some essential parts in our project.</t>
+  </si>
+  <si>
+    <t>Find one potential candidate of essential feature but not sure if it is or not</t>
+  </si>
+  <si>
+    <t>I figured out that we had a wrong direction toward assignment 2, but still thought its somewhat hard to find 2 essential features in our projects.</t>
+  </si>
+  <si>
+    <t>Feel stressful!</t>
+  </si>
+  <si>
+    <t>10:00 - 11:00</t>
+  </si>
+  <si>
+    <t>To report our discussion and get feedback from Kaj</t>
+  </si>
+  <si>
+    <t>We still cannot garauntee that our project is just a wrapper, but Kaj told us we should prepare more for dive deeper into the core c++ project.</t>
+  </si>
+  <si>
+    <t>I had some picture of how we should address assignment 2 and had more understood toward our project.</t>
+  </si>
+  <si>
+    <t>Me, Junxian, Zihua, Craig</t>
+  </si>
+  <si>
+    <t>To understand the detail mechanism behind a database.</t>
+  </si>
+  <si>
+    <t>Have more understand toward our realm-core project structure and understand the basic mechanism of database.</t>
+  </si>
+  <si>
+    <t>Though my friend's sharing, I learned the process of building a database step by step. Even though realm might use some different mechanism, it still helpful to understand the standard steps.</t>
+  </si>
+  <si>
+    <t>21:00 - 23:00</t>
+  </si>
+  <si>
+    <t>To do some research of homework 3 and dispatch tasks to group members</t>
+  </si>
+  <si>
+    <t>Have a struture of doing the homework 3 and we try to finish each part.</t>
+  </si>
+  <si>
+    <t>I was in charge of finding key developers and fnd issues that we might be possibly solved it. Finding key developers is fun because I go through contributors LinkedIn file and figure out their roles.</t>
+  </si>
+  <si>
+    <t>To find out potential issues that we can solve</t>
+  </si>
+  <si>
+    <t>Successfully find 11 issues that we are interested or we might have a chance to solve.</t>
+  </si>
+  <si>
+    <t>Even though realm-java have issues less than 500, it still very hard for me to categorize them and figure out which one is suitable for us. Hence, I spent a lot of time tracking discussions in a lot issues and finally piked 11 results.</t>
+  </si>
+  <si>
+    <t>10:00 - 14:00</t>
+  </si>
+  <si>
+    <t>Successfully finished this section.</t>
+  </si>
+  <si>
+    <t>It's very hard for this part since I needed to read code, find potentially relating relationships, and try to give a solution.</t>
+  </si>
+  <si>
+    <t>14:00 - 17:00</t>
+  </si>
+  <si>
+    <t>To finish the entire homework 3</t>
+  </si>
+  <si>
+    <t>To finish the part in homework 3 of issue that we might be fixed</t>
+  </si>
+  <si>
+    <t>Successfully finished homework 3</t>
+  </si>
+  <si>
+    <t>Through this process, I understand more about our project than before. And for now, I have much more confidence to discuss our project with others.</t>
+  </si>
+  <si>
+    <t>1. Review homework 3 of group project
+2. Understand the concept of KEP, architecture and social context
+4. Industrial sharing</t>
+  </si>
+  <si>
+    <t>1. Understand the concept of KEP(know how things work, address knowledge deficincies and design elegant attractions).
+2. Understood the architecture of the project and had a real-time practice in class.
+3. Understood the concept of social context</t>
+  </si>
+  <si>
+    <t>I seldom to recovered architectre from other's project because my previous experience was that developers would at least havd some documentation or they would told you directly toward their code structure. In-class practice is really helpful, but I was wondering if this practice can also suitable for a big open-source project.</t>
+  </si>
+  <si>
+    <t>Feel not bad.</t>
+  </si>
+  <si>
+    <t>11:00 - 18:00</t>
+  </si>
+  <si>
+    <t>C++ is hard for me to read in the beginning, because I know nothing about it. After I figure out some keyword and relationship of files in c++, I had some progress of understanding project.</t>
+  </si>
+  <si>
+    <t>Have some basic understanding of this new project, and find 2 essential features.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To understand the entire codebase of realm-core and find 2 essential features in order to resubmit our assignment 2. </t>
+  </si>
+  <si>
+    <t>00:00 - 04:00</t>
+  </si>
+  <si>
+    <t>To do research toward 1 of the essential feature of assigment 2</t>
+  </si>
+  <si>
+    <t>Understand the higher level of the essential feature and try to make a report</t>
+  </si>
+  <si>
+    <t>I started to use pen and papper to draw UML diagram because the IDE cannot produce it for us in c++. After I go through the relationship in the feature, I had more confidence toward every relating classes. It also helped me understand the project more.</t>
+  </si>
+  <si>
+    <t>11:00 - 16:00</t>
+  </si>
+  <si>
+    <t>To finish the feature 1 in assignment 2</t>
+  </si>
+  <si>
+    <t>Finished most of it, and delegating other part to another group member (sequential diagram and its use case)</t>
+  </si>
+  <si>
+    <t>After explainning every detail toward relating classes in our essential feature 1, I feel more understanding toward how Real database work when creating table and using table.</t>
   </si>
 </sst>
 </file>
@@ -520,7 +692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -548,6 +720,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -556,7 +737,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -629,6 +810,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -953,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -963,24 +1150,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1531,122 +1718,304 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-    </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
-    </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
-    </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
-    </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
-    </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="21"/>
-    </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
-    </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
-    </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="21"/>
-    </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
-    </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
-    </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
-    </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="21"/>
+    <row r="30" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <v>43874</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>43879</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <v>43879</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <v>43880</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>43880</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>43880</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>43881</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>43881</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>43881</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
+        <v>43881</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
+        <v>43882</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
+        <v>43883</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
+        <v>43883</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>

--- a/diaries/diary-wenchia_yang.xlsx
+++ b/diaries/diary-wenchia_yang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffbala/Desktop/Course/MSWE/2020 Winter/SWE 265P/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5BCD52-F255-E548-A157-DCB13AC16870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D149DE22-8425-B54B-9582-8B25E780DC18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-13700" windowWidth="38400" windowHeight="19760" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="196">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -633,6 +633,34 @@
   </si>
   <si>
     <t xml:space="preserve">We found how to cowork together everytime we finished the assignment. Even though we think every assignment is still not that easy, we still have ourr way to finish it. </t>
+  </si>
+  <si>
+    <t>1. Review homework 4 of group project
+2. Understand the concept of KEP and design pattern
+3. Industrial sharing</t>
+  </si>
+  <si>
+    <t>1. Able to understand our project more
+2. Understand the concept of KEP(invest now to save effort later, socially embed and reinforce and use analogy)
+3. Have genenal concept of design pattern and in-class practice with strategy pattern</t>
+  </si>
+  <si>
+    <t>Undestood the benefits of design pattern even though it seems to be a little bit complex for a small project. However, for our project, I see the benefits of using design patterns. It's easier to understand the code because developers are following he nameing convention.</t>
+  </si>
+  <si>
+    <t>17:00 - 18:00</t>
+  </si>
+  <si>
+    <t>To learn strategy pattern and pracrice it with an actul code</t>
+  </si>
+  <si>
+    <t>Sucessfully made a small example and implented with strategy pattern</t>
+  </si>
+  <si>
+    <t>It's not that hard if you understand the definition, relationship and implementation of the design pattern. I tried to use different example other than the Duck example. It's really helpful.</t>
+  </si>
+  <si>
+    <t>Feel proud.</t>
   </si>
 </sst>
 </file>
@@ -880,13 +908,13 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1209,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1219,24 +1247,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -2156,13 +2184,13 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="153" x14ac:dyDescent="0.2">
-      <c r="A46" s="28">
+      <c r="A46" s="27">
         <v>43887</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="28" t="s">
         <v>31</v>
       </c>
       <c r="D46" s="25" t="s">
@@ -2201,23 +2229,51 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
-    </row>
-    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
+    <row r="48" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
+        <v>43888</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A49" s="9">
+        <v>43889</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>

--- a/diaries/diary-wenchia_yang.xlsx
+++ b/diaries/diary-wenchia_yang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffbala/Desktop/Course/MSWE/2020 Winter/SWE 265P/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D149DE22-8425-B54B-9582-8B25E780DC18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AC44C0-A871-CB4D-97C7-2A3B53E9DF92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-13700" windowWidth="38400" windowHeight="19760" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="208">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -661,6 +661,42 @@
   </si>
   <si>
     <t>Feel proud.</t>
+  </si>
+  <si>
+    <t>11:00 - 12:00</t>
+  </si>
+  <si>
+    <t>To learn observer pattern and pracrice it with an actul code</t>
+  </si>
+  <si>
+    <t>Sucessfully made two small examples and implented with observer pattern</t>
+  </si>
+  <si>
+    <t>The example code from the youtube website is not that practical, so I implemented with another example by using event listener. This is more like we will code in the real world situatin.</t>
+  </si>
+  <si>
+    <t>To learn decorator pattern and pracrice it with an actul code</t>
+  </si>
+  <si>
+    <t>Sucessfully made two small examples and implented with decorator pattern</t>
+  </si>
+  <si>
+    <t>Again, the example code from te Youtube isn't good as other resource from other website. Thus, I implemented two examples. The other one is clearer than the previous example.</t>
+  </si>
+  <si>
+    <t>17:00 - 18:30</t>
+  </si>
+  <si>
+    <t>To learn factory and abstract facory pattern and pracrice them with an actul code</t>
+  </si>
+  <si>
+    <t>Sucessfully made two small examples and implented with factory and abstract factory patterns</t>
+  </si>
+  <si>
+    <t>Feel useful!</t>
+  </si>
+  <si>
+    <t>This time, I implemented with the pattern by myself and made up some real world situations. Factory patterns are useful and thet often implemented by many application. I'm not unfamiliar with them.</t>
   </si>
 </sst>
 </file>
@@ -1237,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2275,32 +2311,74 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="21"/>
-    </row>
-    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="21"/>
-    </row>
-    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="21"/>
+    <row r="50" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
+        <v>43890</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A51" s="9">
+        <v>43891</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A52" s="9">
+        <v>43892</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="17"/>
